--- a/Utils/excel/vinay.xlsx
+++ b/Utils/excel/vinay.xlsx
@@ -1,41 +1,205 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/traderscafe/Documents/TradeMan/Utils/excel/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3C056B-DC2C-8D48-8143-51D88D39C653}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="68800" windowHeight="26600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="MPWizard" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="AmiPy" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Stocks" sheetId="1" r:id="rId1"/>
+    <sheet name="MPWizard" sheetId="2" r:id="rId2"/>
+    <sheet name="AmiPy" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="50">
+  <si>
+    <t>Tr.No</t>
+  </si>
+  <si>
+    <t>Equity</t>
+  </si>
+  <si>
+    <t>Entry Date</t>
+  </si>
+  <si>
+    <t>Exit Date</t>
+  </si>
+  <si>
+    <t>Entry Price</t>
+  </si>
+  <si>
+    <t>Exit Price</t>
+  </si>
+  <si>
+    <t>Trade Points</t>
+  </si>
+  <si>
+    <t>Qty</t>
+  </si>
+  <si>
+    <t>PnL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Margin Used </t>
+  </si>
+  <si>
+    <t>SUNFLAG</t>
+  </si>
+  <si>
+    <t>HPL</t>
+  </si>
+  <si>
+    <t>Unionbank</t>
+  </si>
+  <si>
+    <t>Strategy</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Strike Prc</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Entry Time</t>
+  </si>
+  <si>
+    <t>Exit Time</t>
+  </si>
+  <si>
+    <t>Trade points</t>
+  </si>
+  <si>
+    <t>Tax</t>
+  </si>
+  <si>
+    <t>MPWizard</t>
+  </si>
+  <si>
+    <t>NIFTY</t>
+  </si>
+  <si>
+    <t>10:25</t>
+  </si>
+  <si>
+    <t>10:59</t>
+  </si>
+  <si>
+    <t>BANKNIFTY</t>
+  </si>
+  <si>
+    <t>10:21</t>
+  </si>
+  <si>
+    <t>11:30</t>
+  </si>
+  <si>
+    <t>FINNIFT</t>
+  </si>
+  <si>
+    <t>10:23</t>
+  </si>
+  <si>
+    <t>11:16</t>
+  </si>
+  <si>
+    <t>10:18</t>
+  </si>
+  <si>
+    <t>15:10</t>
+  </si>
+  <si>
+    <t>10:19</t>
+  </si>
+  <si>
+    <t>13:48</t>
+  </si>
+  <si>
+    <t>11:00</t>
+  </si>
+  <si>
+    <t>13:40</t>
+  </si>
+  <si>
+    <t>13:08</t>
+  </si>
+  <si>
+    <t>13:18</t>
+  </si>
+  <si>
+    <t>13:37</t>
+  </si>
+  <si>
+    <t>14:12</t>
+  </si>
+  <si>
+    <t>14:04</t>
+  </si>
+  <si>
+    <t>10:17</t>
+  </si>
+  <si>
+    <t>15:14</t>
+  </si>
+  <si>
+    <t>19400</t>
+  </si>
+  <si>
+    <t>51.50</t>
+  </si>
+  <si>
+    <t>81.70</t>
+  </si>
+  <si>
+    <t>43900</t>
+  </si>
+  <si>
+    <t>143.20</t>
+  </si>
+  <si>
+    <t>140.30</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -50,94 +214,45 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -425,123 +540,118 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Strategy</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Index</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Strike Prc</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Entry Time</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Exit Time</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Entry Price</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Exit Price</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Trade points</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Qty</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>PnL</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>MPWizard</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>NIFTY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>19600</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>10:25</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>10:59</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>76.55</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>59.45</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>-17.09999999999999</v>
-      </c>
-      <c r="J2" t="n">
-        <v>50</v>
-      </c>
-      <c r="K2" t="n">
-        <v>-854.9999999999998</v>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>45146</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E2">
+        <v>191</v>
+      </c>
+      <c r="F2">
+        <v>200.35</v>
+      </c>
+      <c r="G2">
+        <v>11.35</v>
+      </c>
+      <c r="H2">
+        <v>6</v>
+      </c>
+      <c r="I2">
+        <v>68.099999999999994</v>
+      </c>
+      <c r="J2">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E3">
+        <v>177.7</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="H3">
+        <v>12</v>
+      </c>
+      <c r="J3">
+        <v>2132.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E4">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="H4">
+        <v>25</v>
+      </c>
+      <c r="J4">
+        <v>1946.25</v>
       </c>
     </row>
   </sheetData>
@@ -550,18 +660,635 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L15" sqref="L15:L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>19600</v>
+      </c>
+      <c r="D2" s="2">
+        <v>45145</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2">
+        <v>76.55</v>
+      </c>
+      <c r="H2">
+        <v>59.45</v>
+      </c>
+      <c r="I2">
+        <v>-17.099999999999991</v>
+      </c>
+      <c r="J2">
+        <v>50</v>
+      </c>
+      <c r="K2">
+        <v>-854.99999999999977</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3">
+        <v>45000</v>
+      </c>
+      <c r="D3" s="2">
+        <v>45146</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>187.75</v>
+      </c>
+      <c r="H3">
+        <v>157.05000000000001</v>
+      </c>
+      <c r="I3">
+        <v>-30.699999999999989</v>
+      </c>
+      <c r="J3">
+        <v>15</v>
+      </c>
+      <c r="K3">
+        <v>-460.49999999999977</v>
+      </c>
+      <c r="L3">
+        <v>38.335688535000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>20050</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45146</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4">
+        <v>59.05</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>-20.05</v>
+      </c>
+      <c r="J4">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>-801.99999999999989</v>
+      </c>
+      <c r="L4">
+        <v>37.344040799999988</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>19500</v>
+      </c>
+      <c r="D5" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5">
+        <v>49.7</v>
+      </c>
+      <c r="H5">
+        <v>154</v>
+      </c>
+      <c r="I5">
+        <v>104.3</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5">
+        <v>5215</v>
+      </c>
+      <c r="L5">
+        <v>51.514336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6">
+        <v>44600</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45147</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6">
+        <v>207.55</v>
+      </c>
+      <c r="H6">
+        <v>295.85000000000002</v>
+      </c>
+      <c r="I6">
+        <v>88.300000000000011</v>
+      </c>
+      <c r="J6">
+        <v>15</v>
+      </c>
+      <c r="K6">
+        <v>1324.5</v>
+      </c>
+      <c r="L6">
+        <v>42.585860295000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7">
+        <v>20050</v>
+      </c>
+      <c r="D7" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7">
+        <v>103.95</v>
+      </c>
+      <c r="H7">
+        <v>73.650000000000006</v>
+      </c>
+      <c r="I7">
+        <v>-30.3</v>
+      </c>
+      <c r="J7">
+        <v>40</v>
+      </c>
+      <c r="K7">
+        <v>-1212</v>
+      </c>
+      <c r="L7">
+        <v>39.071246279999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8">
+        <v>19550</v>
+      </c>
+      <c r="D8" s="2">
+        <v>45148</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H8">
+        <v>13</v>
+      </c>
+      <c r="I8">
+        <v>-25.8</v>
+      </c>
+      <c r="J8">
+        <v>50</v>
+      </c>
+      <c r="K8">
+        <v>-1290</v>
+      </c>
+      <c r="L8">
+        <v>36.210017000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>19450</v>
+      </c>
+      <c r="D9" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G9">
+        <v>100.7</v>
+      </c>
+      <c r="H9">
+        <v>102.95</v>
+      </c>
+      <c r="I9">
+        <v>2.25</v>
+      </c>
+      <c r="J9">
+        <v>50</v>
+      </c>
+      <c r="K9">
+        <v>112.5</v>
+      </c>
+      <c r="L9">
+        <v>41.955336549999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10">
+        <v>44400</v>
+      </c>
+      <c r="D10" s="2">
+        <v>45149</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10">
+        <v>336.4</v>
+      </c>
+      <c r="H10">
+        <v>298.2</v>
+      </c>
+      <c r="I10">
+        <v>-38.199999999999989</v>
+      </c>
+      <c r="J10">
+        <v>15</v>
+      </c>
+      <c r="K10">
+        <v>-572.99999999999977</v>
+      </c>
+      <c r="L10">
+        <v>40.974163139999987</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>19400</v>
+      </c>
+      <c r="D11" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F11" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11">
+        <v>67.3</v>
+      </c>
+      <c r="H11">
+        <v>50.3</v>
+      </c>
+      <c r="I11">
+        <v>-17</v>
+      </c>
+      <c r="J11">
+        <v>50</v>
+      </c>
+      <c r="K11">
+        <v>-850</v>
+      </c>
+      <c r="L11">
+        <v>38.534142699999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12">
+        <v>44100</v>
+      </c>
+      <c r="D12" s="2">
+        <v>45152</v>
+      </c>
+      <c r="E12" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12">
+        <v>185.1</v>
+      </c>
+      <c r="H12">
+        <v>195.05</v>
+      </c>
+      <c r="I12">
+        <v>9.9500000000000171</v>
+      </c>
+      <c r="J12">
+        <v>15</v>
+      </c>
+      <c r="K12">
+        <v>149.25000000000031</v>
+      </c>
+      <c r="L12">
+        <v>39.232573635000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>19400</v>
+      </c>
+      <c r="D13" s="2">
+        <v>45154</v>
+      </c>
+      <c r="E13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G13">
+        <v>51.5</v>
+      </c>
+      <c r="H13">
+        <v>81.7</v>
+      </c>
+      <c r="I13">
+        <v>30.2</v>
+      </c>
+      <c r="J13">
+        <v>50</v>
+      </c>
+      <c r="K13">
+        <v>1510</v>
+      </c>
+      <c r="L13">
+        <v>42.3781453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14">
+        <v>43900</v>
+      </c>
+      <c r="D14" s="2">
+        <v>45154</v>
+      </c>
+      <c r="E14" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>43</v>
+      </c>
+      <c r="G14">
+        <v>143.19999999999999</v>
+      </c>
+      <c r="H14">
+        <v>140.30000000000001</v>
+      </c>
+      <c r="I14">
+        <v>-2.8999999999999768</v>
+      </c>
+      <c r="J14">
+        <v>15</v>
+      </c>
+      <c r="K14">
+        <v>-43.499999999999659</v>
+      </c>
+      <c r="L14">
+        <v>38.022585810000002</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="3">
+        <v>45154</v>
+      </c>
+      <c r="E15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F15" t="s">
+        <v>43</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15">
+        <v>30.2</v>
+      </c>
+      <c r="J15">
+        <v>50</v>
+      </c>
+      <c r="K15">
+        <v>1510</v>
+      </c>
+      <c r="L15">
+        <v>42.3781453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="3">
+        <v>45154</v>
+      </c>
+      <c r="E16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F16" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16">
+        <v>-2.8999999999999768</v>
+      </c>
+      <c r="J16">
+        <v>15</v>
+      </c>
+      <c r="K16">
+        <v>-43.499999999999659</v>
+      </c>
+      <c r="L16">
+        <v>38.022585810000002</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Utils/excel/vinay.xlsx
+++ b/Utils/excel/vinay.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Stocks" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="MPWizard" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="AmiPy" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Overnight_options" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -593,7 +594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1454,12 +1455,10 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>19300</t>
-        </is>
-      </c>
-      <c r="D19" s="3" t="n">
+      <c r="C19" t="n">
+        <v>19300</v>
+      </c>
+      <c r="D19" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E19" t="inlineStr">
@@ -1472,15 +1471,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>78.85</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>114.00</t>
-        </is>
+      <c r="G19" t="n">
+        <v>78.84999999999999</v>
+      </c>
+      <c r="H19" t="n">
+        <v>114</v>
       </c>
       <c r="I19" t="n">
         <v>35.15000000000001</v>
@@ -1506,12 +1501,10 @@
           <t>BANKNIFTY</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>44000</t>
-        </is>
-      </c>
-      <c r="D20" s="3" t="n">
+      <c r="C20" t="n">
+        <v>44000</v>
+      </c>
+      <c r="D20" s="2" t="n">
         <v>45159</v>
       </c>
       <c r="E20" t="inlineStr">
@@ -1524,15 +1517,11 @@
           <t>14:09</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>194.05</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>222.00</t>
-        </is>
+      <c r="G20" t="n">
+        <v>194.05</v>
+      </c>
+      <c r="H20" t="n">
+        <v>222</v>
       </c>
       <c r="I20" t="n">
         <v>27.94999999999999</v>
@@ -1545,6 +1534,110 @@
       </c>
       <c r="L20" t="n">
         <v>40.07384189999999</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>19650</t>
+        </is>
+      </c>
+      <c r="D21" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>10:36</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>12:46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>26.65</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>-20</v>
+      </c>
+      <c r="J21" t="n">
+        <v>40</v>
+      </c>
+      <c r="K21" t="n">
+        <v>-800</v>
+      </c>
+      <c r="L21" t="n">
+        <v>35.73148388000001</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>44000</t>
+        </is>
+      </c>
+      <c r="D22" s="3" t="n">
+        <v>45160</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>12:19</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>15:00</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>153.70</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>139.80</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>-13.89999999999998</v>
+      </c>
+      <c r="J22" t="n">
+        <v>15</v>
+      </c>
+      <c r="K22" t="n">
+        <v>-208.4999999999997</v>
+      </c>
+      <c r="L22" t="n">
+        <v>38.01323946</v>
       </c>
     </row>
   </sheetData>
@@ -1568,4 +1661,101 @@
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Entry</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Future_Exit</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Entry</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Option_Exit</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Trade_Points</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>PnL</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Tax</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19400.95</v>
+      </c>
+      <c r="D2" t="n">
+        <v>19410.8</v>
+      </c>
+      <c r="E2" t="n">
+        <v>12.3</v>
+      </c>
+      <c r="F2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.949999999998544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>594.9999999998545</v>
+      </c>
+      <c r="I2" t="n">
+        <v>570.0298522400001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/Utils/excel/vinay.xlsx
+++ b/Utils/excel/vinay.xlsx
@@ -602,7 +602,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L38"/>
+  <dimension ref="A1:L42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2291,12 +2291,10 @@
           <t>NIFTY</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>19350</t>
-        </is>
-      </c>
-      <c r="D37" s="3" t="n">
+      <c r="C37" t="n">
+        <v>19350</v>
+      </c>
+      <c r="D37" s="2" t="n">
         <v>45170</v>
       </c>
       <c r="E37" t="inlineStr">
@@ -2309,15 +2307,11 @@
           <t>10:44</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>79.15</t>
-        </is>
+      <c r="G37" t="n">
+        <v>93.25</v>
+      </c>
+      <c r="H37" t="n">
+        <v>79.15000000000001</v>
       </c>
       <c r="I37" t="n">
         <v>-14.09999999999999</v>
@@ -2343,12 +2337,10 @@
           <t>FINNIFTY</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>19600</t>
-        </is>
-      </c>
-      <c r="D38" s="3" t="n">
+      <c r="C38" t="n">
+        <v>19600</v>
+      </c>
+      <c r="D38" s="2" t="n">
         <v>45170</v>
       </c>
       <c r="E38" t="inlineStr">
@@ -2361,15 +2353,11 @@
           <t>10:45</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>85.60</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>71.55</t>
-        </is>
+      <c r="G38" t="n">
+        <v>85.59999999999999</v>
+      </c>
+      <c r="H38" t="n">
+        <v>71.55</v>
       </c>
       <c r="I38" t="n">
         <v>-14.05</v>
@@ -2382,6 +2370,202 @@
       </c>
       <c r="L38" t="n">
         <v>38.96656716</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>44400</v>
+      </c>
+      <c r="D39" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>11:25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>13:45</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>75.65000000000001</v>
+      </c>
+      <c r="H39" t="n">
+        <v>142</v>
+      </c>
+      <c r="I39" t="n">
+        <v>66.34999999999999</v>
+      </c>
+      <c r="J39" t="n">
+        <v>15</v>
+      </c>
+      <c r="K39" t="n">
+        <v>995.2499999999999</v>
+      </c>
+      <c r="L39" t="n">
+        <v>39.29842589999999</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>19700</v>
+      </c>
+      <c r="D40" s="2" t="n">
+        <v>45142</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>11:29</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>14:42</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>74.59999999999999</v>
+      </c>
+      <c r="H40" t="n">
+        <v>72.8</v>
+      </c>
+      <c r="I40" t="n">
+        <v>-1.799999999999997</v>
+      </c>
+      <c r="J40" t="n">
+        <v>40</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-71.99999999999989</v>
+      </c>
+      <c r="L40" t="n">
+        <v>39.02887616</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>FINNIFTY</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>19800</t>
+        </is>
+      </c>
+      <c r="D41" s="3" t="n">
+        <v>45176</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>10:40</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>11:33</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>98.08</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="J41" t="n">
+        <v>80</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1056</v>
+      </c>
+      <c r="L41" t="n">
+        <v>46.498026752</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>MPWizard</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>BANKNIFTY</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>44500</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="n">
+        <v>45176</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>10:42</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>11:19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>264.35</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>263.60</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="J42" t="n">
+        <v>15</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-11.25</v>
+      </c>
+      <c r="L42" t="n">
+        <v>40.32739572</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2597,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2592,6 +2776,68 @@
         <v>577.0542668400001</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>BULLISH</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>19654.4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>19645.05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="F6" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-9.350000000002183</v>
+      </c>
+      <c r="H6" t="n">
+        <v>-935.0000000002183</v>
+      </c>
+      <c r="I6" t="n">
+        <v>574.08409629</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>BEARISH</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>19660.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>19629.62</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="G7" t="n">
+        <v>30.08000000000175</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3008.000000000175</v>
+      </c>
+      <c r="I7" t="n">
+        <v>572.342336456</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
